--- a/medicine/Handicap/Élodie_Cazes/Élodie_Cazes.xlsx
+++ b/medicine/Handicap/Élodie_Cazes/Élodie_Cazes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Cazes</t>
+          <t>Élodie_Cazes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Cazes, née le 3 avril 1979 à Agen, est une artiste peintre française.
 Elle est connue pour ses illustrations peintes à la bouche pour l'association de l'APBP.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Cazes</t>
+          <t>Élodie_Cazes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Cazes est née le 3 avril 1979 à Agen.
 Elle part vivre quelque temps, avec ses parents, en Nouvelle-Zélande[Quand ?] et, âgée de 12 ans, elle est victime d'un accident de plongée qui la paralyse à vie.
-En mars 1997, elle adhère à l'association de l'APBP[1].
+En mars 1997, elle adhère à l'association de l'APBP.
 </t>
         </is>
       </c>
